--- a/第一阶段.xlsx
+++ b/第一阶段.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="计划" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>JavaScript权威指南</t>
   </si>
@@ -498,6 +498,33 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,28 +543,13 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -546,22 +558,10 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1046,14 +1046,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
@@ -1076,10 +1076,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="17">
+      <c r="A4" s="26">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1091,13 +1091,13 @@
       <c r="E4" s="11">
         <v>33</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="17"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="20"/>
       <c r="C5" s="8" t="s">
         <v>22</v>
@@ -1108,11 +1108,11 @@
       <c r="E5" s="11">
         <v>18</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="17">
+      <c r="A6" s="26">
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -1127,11 +1127,11 @@
       <c r="E6" s="11">
         <v>10</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="17"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="20"/>
       <c r="C7" s="9" t="s">
         <v>19</v>
@@ -1142,119 +1142,119 @@
       <c r="E7" s="11">
         <v>9</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="17">
+      <c r="A8" s="26">
         <v>3</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="18">
         <v>9</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="17"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="16"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="17">
+      <c r="A10" s="26">
         <v>4</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="18">
         <v>22</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="17"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="20"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="16"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="17">
+      <c r="A12" s="26">
         <v>5</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="18">
         <v>25</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="17"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="20"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="17">
+      <c r="A14" s="26">
         <v>6</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="18">
         <v>23</v>
       </c>
-      <c r="F14" s="16"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="17"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="20"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="16"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
@@ -1264,26 +1264,15 @@
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="16"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="F4:F16"/>
     <mergeCell ref="A4:A5"/>
@@ -1300,6 +1289,17 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1314,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1333,104 +1333,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="14" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="35" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="33"/>
-      <c r="B4" s="31">
+      <c r="A4" s="34"/>
+      <c r="B4" s="30">
         <v>1</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="30">
         <v>2</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="30">
         <v>3</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <v>4</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <v>5</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="30">
         <v>6</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="30">
         <v>7</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="33"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="13">
-        <v>42901</v>
+        <v>42900</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -2913,6 +2915,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
@@ -2929,8 +2933,6 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第一阶段.xlsx
+++ b/第一阶段.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>JavaScript权威指南</t>
   </si>
@@ -504,58 +504,58 @@
     <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1046,14 +1046,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
@@ -1076,10 +1076,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="26">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1091,14 +1091,14 @@
       <c r="E4" s="11">
         <v>33</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="26"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
@@ -1108,14 +1108,14 @@
       <c r="E5" s="11">
         <v>18</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="26">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1127,12 +1127,12 @@
       <c r="E6" s="11">
         <v>10</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="26"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
@@ -1142,119 +1142,119 @@
       <c r="E7" s="11">
         <v>9</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="26">
+      <c r="A8" s="19">
         <v>3</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="25">
         <v>9</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="26"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="25"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="26">
+      <c r="A10" s="19">
         <v>4</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="25">
         <v>22</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="26"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="25"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="26">
+      <c r="A12" s="19">
         <v>5</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="25">
         <v>25</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="26"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="25"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="26">
+      <c r="A14" s="19">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="25">
         <v>23</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="26"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="25"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
@@ -1264,15 +1264,26 @@
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="25"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="F4:F16"/>
     <mergeCell ref="A4:A5"/>
@@ -1289,17 +1300,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1315,7 +1315,7 @@
   <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1333,41 +1333,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="30" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="14" t="s">
@@ -1375,55 +1375,55 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="34"/>
-      <c r="B4" s="30">
+      <c r="B4" s="32">
         <v>1</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="32">
         <v>2</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="32">
         <v>3</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="32">
         <v>4</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="32">
         <v>5</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="32">
         <v>6</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="32">
         <v>7</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="34"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="13">
@@ -1434,7 +1434,9 @@
         <v>26</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="F6" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -2915,11 +2917,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F2:F3"/>
@@ -2933,6 +2930,11 @@
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第一阶段.xlsx
+++ b/第一阶段.xlsx
@@ -504,6 +504,27 @@
     <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,40 +543,19 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1046,14 +1046,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
@@ -1076,10 +1076,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="19">
+      <c r="A4" s="26">
         <v>1</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1091,14 +1091,14 @@
       <c r="E4" s="11">
         <v>33</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="19"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
@@ -1108,14 +1108,14 @@
       <c r="E5" s="11">
         <v>18</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="19">
+      <c r="A6" s="26">
         <v>2</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1127,12 +1127,12 @@
       <c r="E6" s="11">
         <v>10</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="19"/>
-      <c r="B7" s="22"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
@@ -1142,119 +1142,119 @@
       <c r="E7" s="11">
         <v>9</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="19">
+      <c r="A8" s="26">
         <v>3</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="18">
         <v>9</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="18"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="19">
+      <c r="A10" s="26">
         <v>4</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="18">
         <v>22</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="19"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="18"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="19">
+      <c r="A12" s="26">
         <v>5</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="18">
         <v>25</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="19"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="18"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="19">
+      <c r="A14" s="26">
         <v>6</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="18">
         <v>23</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="19"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="18"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
@@ -1264,26 +1264,15 @@
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="18"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="F4:F16"/>
     <mergeCell ref="A4:A5"/>
@@ -1300,6 +1289,17 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1315,7 +1315,7 @@
   <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1333,41 +1333,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="32" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="14" t="s">
@@ -1375,55 +1375,55 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="34"/>
-      <c r="B4" s="32">
+      <c r="B4" s="30">
         <v>1</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="30">
         <v>2</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="30">
         <v>3</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="30">
         <v>4</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="30">
         <v>5</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="30">
         <v>6</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="30">
         <v>7</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="30" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="34"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="13">
@@ -2917,6 +2917,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="F2:F3"/>
@@ -2933,8 +2935,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第一阶段.xlsx
+++ b/第一阶段.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>JavaScript权威指南</t>
   </si>
@@ -504,46 +504,46 @@
     <xf numFmtId="0" fontId="15" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1046,14 +1046,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
@@ -1076,10 +1076,10 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="26">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1091,14 +1091,14 @@
       <c r="E4" s="11">
         <v>33</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="18" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="26"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
@@ -1108,14 +1108,14 @@
       <c r="E5" s="11">
         <v>18</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="26">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1127,12 +1127,12 @@
       <c r="E6" s="11">
         <v>10</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="26"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
@@ -1142,119 +1142,119 @@
       <c r="E7" s="11">
         <v>9</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="26">
+      <c r="A8" s="19">
         <v>3</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="25">
         <v>9</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="26"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="25"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="26">
+      <c r="A10" s="19">
         <v>4</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="25">
         <v>22</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="26"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="25"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="26">
+      <c r="A12" s="19">
         <v>5</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="25">
         <v>25</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="26"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="25"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="26">
+      <c r="A14" s="19">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="25">
         <v>23</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="26"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="25"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7">
@@ -1264,15 +1264,26 @@
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="25"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="F4:F16"/>
     <mergeCell ref="A4:A5"/>
@@ -1289,17 +1300,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1315,7 +1315,7 @@
   <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1437,7 +1437,9 @@
       <c r="F6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
@@ -2917,6 +2919,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -2933,8 +2937,6 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
